--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ndp</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ndp</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H2">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I2">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6041275</v>
+        <v>2.4249555</v>
       </c>
       <c r="N2">
-        <v>3.208255</v>
+        <v>4.849911</v>
       </c>
       <c r="O2">
-        <v>0.087560868457266</v>
+        <v>0.1414947904552067</v>
       </c>
       <c r="P2">
-        <v>0.07010630203157292</v>
+        <v>0.1135050984851495</v>
       </c>
       <c r="Q2">
-        <v>0.164073368955</v>
+        <v>0.4488422883615</v>
       </c>
       <c r="R2">
-        <v>0.6562934758200001</v>
+        <v>1.795369153446</v>
       </c>
       <c r="S2">
-        <v>0.08106036826529928</v>
+        <v>0.1414947904552067</v>
       </c>
       <c r="T2">
-        <v>0.06257871008455121</v>
+        <v>0.1135050984851495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H3">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I3">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>22.613782</v>
       </c>
       <c r="O3">
-        <v>0.411455737573497</v>
+        <v>0.4398338231347236</v>
       </c>
       <c r="P3">
-        <v>0.4941529370228199</v>
+        <v>0.5292426094069979</v>
       </c>
       <c r="Q3">
-        <v>0.770994283508</v>
+        <v>1.395217583908667</v>
       </c>
       <c r="R3">
-        <v>4.625965701048001</v>
+        <v>8.371305503452</v>
       </c>
       <c r="S3">
-        <v>0.3809093514057114</v>
+        <v>0.4398338231347236</v>
       </c>
       <c r="T3">
-        <v>0.4410937745575842</v>
+        <v>0.5292426094069979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H4">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I4">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2237333333333333</v>
+        <v>0.1035233333333333</v>
       </c>
       <c r="N4">
-        <v>0.6712</v>
+        <v>0.31057</v>
       </c>
       <c r="O4">
-        <v>0.01221242386874213</v>
+        <v>0.006040528313704939</v>
       </c>
       <c r="P4">
-        <v>0.01466696067600354</v>
+        <v>0.007268438211862629</v>
       </c>
       <c r="Q4">
-        <v>0.0228838928</v>
+        <v>0.01916144433666667</v>
       </c>
       <c r="R4">
-        <v>0.1373033568</v>
+        <v>0.11496866602</v>
       </c>
       <c r="S4">
-        <v>0.01130577612641324</v>
+        <v>0.006040528313704939</v>
       </c>
       <c r="T4">
-        <v>0.01309211088543484</v>
+        <v>0.007268438211862629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H5">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I5">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.593577999999999</v>
+        <v>6.260847500000001</v>
       </c>
       <c r="N5">
-        <v>15.187156</v>
+        <v>12.521695</v>
       </c>
       <c r="O5">
-        <v>0.4144934142566529</v>
+        <v>0.3653169326548487</v>
       </c>
       <c r="P5">
-        <v>0.3318674312162265</v>
+        <v>0.2930520218156591</v>
       </c>
       <c r="Q5">
-        <v>0.776686344996</v>
+        <v>1.1588390463175</v>
       </c>
       <c r="R5">
-        <v>3.106745379984</v>
+        <v>4.635356185270001</v>
       </c>
       <c r="S5">
-        <v>0.3837215116200394</v>
+        <v>0.3653169326548487</v>
       </c>
       <c r="T5">
-        <v>0.2962335077270516</v>
+        <v>0.2930520218156591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H6">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I6">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.310623666666667</v>
+        <v>0.6812176666666666</v>
       </c>
       <c r="N6">
-        <v>3.931871</v>
+        <v>2.043653</v>
       </c>
       <c r="O6">
-        <v>0.07154004059775775</v>
+        <v>0.03974866796499352</v>
       </c>
       <c r="P6">
-        <v>0.08591864919564766</v>
+        <v>0.04782871995681392</v>
       </c>
       <c r="Q6">
-        <v>0.134053209874</v>
+        <v>0.1260886215763333</v>
       </c>
       <c r="R6">
-        <v>0.8043192592440002</v>
+        <v>0.756531729458</v>
       </c>
       <c r="S6">
-        <v>0.06622892324781966</v>
+        <v>0.03974866796499352</v>
       </c>
       <c r="T6">
-        <v>0.07669322276404288</v>
+        <v>0.04782871995681392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,433 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.102282</v>
+        <v>0.185093</v>
       </c>
       <c r="H7">
-        <v>0.204564</v>
+        <v>0.370186</v>
       </c>
       <c r="I7">
-        <v>0.9257602133635839</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8926260303441536</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05015166666666667</v>
+        <v>0.1296543333333333</v>
       </c>
       <c r="N7">
-        <v>0.150455</v>
+        <v>0.388963</v>
       </c>
       <c r="O7">
-        <v>0.002737515246084025</v>
+        <v>0.007565257476522569</v>
       </c>
       <c r="P7">
-        <v>0.003287719857729608</v>
+        <v>0.009103112123517158</v>
       </c>
       <c r="Q7">
-        <v>0.005129612770000001</v>
+        <v>0.02399810951966667</v>
       </c>
       <c r="R7">
-        <v>0.03077767662</v>
+        <v>0.143988657118</v>
       </c>
       <c r="S7">
-        <v>0.002534282698300811</v>
+        <v>0.007565257476522569</v>
       </c>
       <c r="T7">
-        <v>0.002934704325488825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.024607</v>
-      </c>
-      <c r="I8">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J8">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.6041275</v>
-      </c>
-      <c r="N8">
-        <v>3.208255</v>
-      </c>
-      <c r="O8">
-        <v>0.087560868457266</v>
-      </c>
-      <c r="P8">
-        <v>0.07010630203157292</v>
-      </c>
-      <c r="Q8">
-        <v>0.01315758846416667</v>
-      </c>
-      <c r="R8">
-        <v>0.07894553078500001</v>
-      </c>
-      <c r="S8">
-        <v>0.006500500191966718</v>
-      </c>
-      <c r="T8">
-        <v>0.007527591947021721</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.024607</v>
-      </c>
-      <c r="I9">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J9">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.537927333333333</v>
-      </c>
-      <c r="N9">
-        <v>22.613782</v>
-      </c>
-      <c r="O9">
-        <v>0.411455737573497</v>
-      </c>
-      <c r="P9">
-        <v>0.4941529370228199</v>
-      </c>
-      <c r="Q9">
-        <v>0.06182859263044445</v>
-      </c>
-      <c r="R9">
-        <v>0.5564573336740001</v>
-      </c>
-      <c r="S9">
-        <v>0.0305463861677856</v>
-      </c>
-      <c r="T9">
-        <v>0.05305916246523569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.024607</v>
-      </c>
-      <c r="I10">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J10">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2237333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.6712</v>
-      </c>
-      <c r="O10">
-        <v>0.01221242386874213</v>
-      </c>
-      <c r="P10">
-        <v>0.01466696067600354</v>
-      </c>
-      <c r="Q10">
-        <v>0.001835135377777778</v>
-      </c>
-      <c r="R10">
-        <v>0.0165162184</v>
-      </c>
-      <c r="S10">
-        <v>0.0009066477423288903</v>
-      </c>
-      <c r="T10">
-        <v>0.001574849790568698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.024607</v>
-      </c>
-      <c r="I11">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J11">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.593577999999999</v>
-      </c>
-      <c r="N11">
-        <v>15.187156</v>
-      </c>
-      <c r="O11">
-        <v>0.4144934142566529</v>
-      </c>
-      <c r="P11">
-        <v>0.3318674312162265</v>
-      </c>
-      <c r="Q11">
-        <v>0.06228505794866666</v>
-      </c>
-      <c r="R11">
-        <v>0.373710347692</v>
-      </c>
-      <c r="S11">
-        <v>0.03077190263661351</v>
-      </c>
-      <c r="T11">
-        <v>0.03563392348917483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.024607</v>
-      </c>
-      <c r="I12">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J12">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.310623666666667</v>
-      </c>
-      <c r="N12">
-        <v>3.931871</v>
-      </c>
-      <c r="O12">
-        <v>0.07154004059775775</v>
-      </c>
-      <c r="P12">
-        <v>0.08591864919564766</v>
-      </c>
-      <c r="Q12">
-        <v>0.01075017218855556</v>
-      </c>
-      <c r="R12">
-        <v>0.09675154969700001</v>
-      </c>
-      <c r="S12">
-        <v>0.005311117349938075</v>
-      </c>
-      <c r="T12">
-        <v>0.009225426431604792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.008202333333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.024607</v>
-      </c>
-      <c r="I13">
-        <v>0.07423978663641602</v>
-      </c>
-      <c r="J13">
-        <v>0.1073739696558465</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05015166666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.150455</v>
-      </c>
-      <c r="O13">
-        <v>0.002737515246084025</v>
-      </c>
-      <c r="P13">
-        <v>0.003287719857729608</v>
-      </c>
-      <c r="Q13">
-        <v>0.0004113606872222223</v>
-      </c>
-      <c r="R13">
-        <v>0.003702246185</v>
-      </c>
-      <c r="S13">
-        <v>0.0002032325477832139</v>
-      </c>
-      <c r="T13">
-        <v>0.0003530155322407828</v>
+        <v>0.009103112123517158</v>
       </c>
     </row>
   </sheetData>
